--- a/Axam_Results.xlsx
+++ b/Axam_Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/SOC Modeling/RothC/RothC_Calibrated/RothC_Implementation_Axam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/SOC Modeling/RothC/RothC_Implementation/Code/RothC_Implementation_Axam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8314EF10-BB0E-5B43-8033-22C39124D8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C92B844-46B5-3046-A5D3-2FF1FFB5BCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{AA4B684E-F9E2-7F41-996C-BD2AB92E0EF7}"/>
   </bookViews>
@@ -768,9 +768,6 @@
     <t>Total Error (tC/ha/yr)^2</t>
   </si>
   <si>
-    <t>Baseline Model Error (tC/ha/yr)^2</t>
-  </si>
-  <si>
     <t>Baseline Sampling Error (tC/ha/yr)^2</t>
   </si>
   <si>
@@ -790,6 +787,9 @@
   </si>
   <si>
     <t>Representative Area</t>
+  </si>
+  <si>
+    <t>Model Error (tC/ha/yr)^2</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8459C356-BFF7-1A4F-8872-7C39E98F0955}">
   <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1781,18 +1781,18 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1805,13 +1805,13 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -1849,7 +1849,7 @@
         <v>7.6778596799999992</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
+        <f>D7*$B$2*44/12</f>
         <v>253369.36943999995</v>
       </c>
       <c r="G7">
@@ -2167,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B567ED3B-B196-F14D-93F7-E323B63B4087}">
   <dimension ref="A1:AN250"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7853,8 +7853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF160EE1-DCC9-F743-9397-6C364A7DC125}">
   <dimension ref="A1:AR259"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A86" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10186,7 +10186,7 @@
       <c r="AA21" s="110"/>
       <c r="AB21" s="110"/>
     </row>
-    <row r="22" spans="1:44" s="56" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" s="56" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="94" t="s">
         <v>11</v>
       </c>
@@ -15173,8 +15173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47BAACC-3202-4440-8CEE-641AA3FE77AE}">
   <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15192,7 +15192,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
         <v>226</v>
@@ -15416,7 +15416,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="22">
         <f>H9/(B9^2)</f>
@@ -15425,10 +15425,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" s="22" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E13" s="22">
-        <f>'Baseline Model Error'!B80^2</f>
+        <f>'Baseline Model Error'!B80^2 + 'Project Model Error'!B89^2</f>
         <v>0.17414834807845733</v>
       </c>
     </row>

--- a/Axam_Results.xlsx
+++ b/Axam_Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/SOC Modeling/RothC/RothC_Implementation/Code/RothC_Implementation_Axam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/QA1_&amp;_3/Code/RothC_Implementation_Axam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C92B844-46B5-3046-A5D3-2FF1FFB5BCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DCAAC9-6AF9-C84A-BD12-15584C62642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{AA4B684E-F9E2-7F41-996C-BD2AB92E0EF7}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="252">
   <si>
     <t>Year</t>
   </si>
@@ -790,6 +790,36 @@
   </si>
   <si>
     <t>Model Error (tC/ha/yr)^2</t>
+  </si>
+  <si>
+    <t>N2O Emissions Burning (Baseline only)</t>
+  </si>
+  <si>
+    <t>CH4 Emissions Burning (Baseline only)</t>
+  </si>
+  <si>
+    <t>Fossil Fuel (Baseline)</t>
+  </si>
+  <si>
+    <t>Fossil Fuel (Project)</t>
+  </si>
+  <si>
+    <t>Fertilizer Usage (Baseline)</t>
+  </si>
+  <si>
+    <t>Fertilizer Usage (Project)</t>
+  </si>
+  <si>
+    <t>Total (QA3 Emissions)</t>
+  </si>
+  <si>
+    <t>QA1</t>
+  </si>
+  <si>
+    <t>QA3</t>
+  </si>
+  <si>
+    <t>NPRT</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1153,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1404,6 +1434,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1741,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8459C356-BFF7-1A4F-8872-7C39E98F0955}">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1754,10 +1787,19 @@
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" customWidth="1"/>
+    <col min="14" max="14" width="27.1640625" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1766,7 +1808,22 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F3" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="125"/>
+      <c r="I3" s="125" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1779,18 +1836,41 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>235</v>
       </c>
@@ -1803,19 +1883,38 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>236</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O5" t="s">
+        <v>236</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1830,11 +1929,11 @@
         <v>7.9670083300000005</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F18" si="1">D6*$B$2*44/12</f>
+        <f>D6*$B$2*44/12</f>
         <v>262911.27489</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -1856,12 +1955,34 @@
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H7" s="123">
-        <f>F7-G7</f>
-        <v>236038.75669484161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J7">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K7">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L7">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M7">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N7">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O7">
+        <f>(N7+L7)-(I7+J7+K7+M7)</f>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T7" s="123">
+        <f>F7- G7 - O7</f>
+        <v>233738.0277850616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2025</v>
       </c>
@@ -1876,19 +1997,41 @@
         <v>7.4511017000000006</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f>D8*$B$2*44/12</f>
         <v>245886.3561</v>
       </c>
       <c r="G8">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H8" s="123">
-        <f t="shared" ref="H8:H17" si="2">F8-G8</f>
-        <v>228555.74335484166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J8">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K8">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L8">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M8">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N8">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O18" si="1">(N8+L8)-(I8+J8+K8+M8)</f>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T8" s="123">
+        <f>F8-G8 - O8</f>
+        <v>226255.01444506165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2026</v>
       </c>
@@ -1903,19 +2046,41 @@
         <v>7.5496964200000001</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
+        <f>D9*$B$2*44/12</f>
         <v>249139.98185999997</v>
       </c>
       <c r="G9">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H9" s="123">
-        <f t="shared" si="2"/>
-        <v>231809.36911484163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J9">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K9">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L9">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M9">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N9">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T9" s="123">
+        <f>F9-G9 - O9</f>
+        <v>229508.64020506162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2027</v>
       </c>
@@ -1930,19 +2095,41 @@
         <v>7.6215040700000003</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
+        <f>D10*$B$2*44/12</f>
         <v>251509.63430999999</v>
       </c>
       <c r="G10">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H10" s="123">
-        <f t="shared" si="2"/>
-        <v>234179.02156484165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J10">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K10">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L10">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M10">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N10">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T10" s="123">
+        <f>F10-G10 - O10</f>
+        <v>231878.29265506164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2028</v>
       </c>
@@ -1957,19 +2144,41 @@
         <v>7.67404376</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f>D11*$B$2*44/12</f>
         <v>253243.44408000002</v>
       </c>
       <c r="G11">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H11" s="123">
-        <f t="shared" si="2"/>
-        <v>235912.83133484167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J11">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K11">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L11">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M11">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N11">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T11" s="123">
+        <f>F11-G11 - O11</f>
+        <v>233612.10242506166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2029</v>
       </c>
@@ -1984,19 +2193,41 @@
         <v>7.7127074999999987</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
+        <f>D12*$B$2*44/12</f>
         <v>254519.3475</v>
       </c>
       <c r="G12">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H12" s="123">
-        <f t="shared" si="2"/>
-        <v>237188.73475484166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J12">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K12">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L12">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M12">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N12">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T12" s="123">
+        <f>F12-G12 - O12</f>
+        <v>234888.00584506165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2030</v>
       </c>
@@ -2011,19 +2242,41 @@
         <v>7.7413696999999999</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f>D13*$B$2*44/12</f>
         <v>255465.20010000002</v>
       </c>
       <c r="G13">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H13" s="123">
-        <f t="shared" si="2"/>
-        <v>238134.58735484167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J13">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K13">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L13">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M13">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N13">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T13" s="123">
+        <f>F13-G13 - O13</f>
+        <v>235833.85844506166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2031</v>
       </c>
@@ -2038,19 +2291,41 @@
         <v>7.7628164000000002</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f>D14*$B$2*44/12</f>
         <v>256172.94120000003</v>
       </c>
       <c r="G14">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H14" s="123">
-        <f t="shared" si="2"/>
-        <v>238842.32845484169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J14">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K14">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L14">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M14">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N14">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T14" s="123">
+        <f>F14-G14 - O14</f>
+        <v>236541.59954506168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2032</v>
       </c>
@@ -2065,19 +2340,41 @@
         <v>7.7790524199999993</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f>D15*$B$2*44/12</f>
         <v>256708.72985999996</v>
       </c>
       <c r="G15">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H15" s="123">
-        <f t="shared" si="2"/>
-        <v>239378.11711484162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J15">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K15">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L15">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M15">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N15">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T15" s="123">
+        <f>F15-G15 - O15</f>
+        <v>237077.38820506161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2033</v>
       </c>
@@ -2092,19 +2389,41 @@
         <v>7.7915207800000008</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f>D16*$B$2*44/12</f>
         <v>257120.18574000002</v>
       </c>
       <c r="G16">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H16" s="123">
-        <f t="shared" si="2"/>
-        <v>239789.57299484167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J16">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K16">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L16">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M16">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N16">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T16" s="123">
+        <f>F16-G16 - O16</f>
+        <v>237488.84408506166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2034</v>
       </c>
@@ -2119,19 +2438,41 @@
         <v>7.80126075</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f>D17*$B$2*44/12</f>
         <v>257441.60474999997</v>
       </c>
       <c r="G17">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H17" s="123">
-        <f t="shared" si="2"/>
-        <v>240110.99200484162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J17">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K17">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L17">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M17">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N17">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T17" s="123">
+        <f>F17-G17 - O17</f>
+        <v>237810.26309506161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2035</v>
       </c>
@@ -2146,19 +2487,45 @@
         <v>7.8090211300000005</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
+        <f>D18*$B$2*44/12</f>
         <v>257697.69729000001</v>
       </c>
       <c r="G18">
         <f>SQRT('Sampling &amp; Combined Error'!$E$14)*$B$2*44/12</f>
         <v>17330.612745158352</v>
       </c>
-      <c r="H18" s="123">
-        <f>F18-G18</f>
-        <v>240367.08454484167</v>
+      <c r="I18">
+        <v>107.49299999999999</v>
+      </c>
+      <c r="J18">
+        <v>187.74719999999999</v>
+      </c>
+      <c r="K18">
+        <v>1554.49771021999</v>
+      </c>
+      <c r="L18">
+        <v>1107.5355199999999</v>
+      </c>
+      <c r="M18">
+        <v>3042.9313000000002</v>
+      </c>
+      <c r="N18">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>2300.7289097800094</v>
+      </c>
+      <c r="T18" s="123">
+        <f>F18-G18 - O18</f>
+        <v>238066.35563506166</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:O3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7853,7 +8220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF160EE1-DCC9-F743-9397-6C364A7DC125}">
   <dimension ref="A1:AR259"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>

--- a/Axam_Results.xlsx
+++ b/Axam_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/QA1_&amp;_3/Code/RothC_Implementation_Axam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DCAAC9-6AF9-C84A-BD12-15584C62642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BB8BC-7567-284C-9E81-856ECBAC2BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{AA4B684E-F9E2-7F41-996C-BD2AB92E0EF7}"/>
   </bookViews>
@@ -1432,11 +1432,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1776,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8459C356-BFF7-1A4F-8872-7C39E98F0955}">
   <dimension ref="A2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1809,19 +1809,19 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="124" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="I3" s="125" t="s">
+      <c r="G3" s="124"/>
+      <c r="I3" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1929,7 +1929,7 @@
         <v>7.9670083300000005</v>
       </c>
       <c r="F6" s="3">
-        <f>D6*$B$2*44/12</f>
+        <f t="shared" ref="F6:F18" si="1">D6*$B$2*44/12</f>
         <v>262911.27489</v>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>7.6778596799999992</v>
       </c>
       <c r="F7" s="3">
-        <f>D7*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>253369.36943999995</v>
       </c>
       <c r="G7">
@@ -1968,18 +1968,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M7">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N7">
         <v>3042.9313000000002</v>
-      </c>
-      <c r="N7">
-        <v>6085.8626000000004</v>
       </c>
       <c r="O7">
         <f>(N7+L7)-(I7+J7+K7+M7)</f>
-        <v>2300.7289097800094</v>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T7" s="123">
         <f>F7- G7 - O7</f>
-        <v>233738.0277850616</v>
+        <v>239823.89038506159</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1997,7 +1997,7 @@
         <v>7.4511017000000006</v>
       </c>
       <c r="F8" s="3">
-        <f>D8*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>245886.3561</v>
       </c>
       <c r="G8">
@@ -2017,18 +2017,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M8">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N8">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N8">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O8">
-        <f t="shared" ref="O8:O18" si="1">(N8+L8)-(I8+J8+K8+M8)</f>
-        <v>2300.7289097800094</v>
+        <f t="shared" ref="O8:O18" si="2">(N8+L8)-(I8+J8+K8+M8)</f>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T8" s="123">
-        <f>F8-G8 - O8</f>
-        <v>226255.01444506165</v>
+        <f t="shared" ref="T8:T18" si="3">F8-G8 - O8</f>
+        <v>232340.87704506164</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -2046,7 +2046,7 @@
         <v>7.5496964200000001</v>
       </c>
       <c r="F9" s="3">
-        <f>D9*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>249139.98185999997</v>
       </c>
       <c r="G9">
@@ -2066,18 +2066,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M9">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N9">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N9">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O9">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T9" s="123">
-        <f>F9-G9 - O9</f>
-        <v>229508.64020506162</v>
+        <f t="shared" si="3"/>
+        <v>235594.50280506161</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>7.6215040700000003</v>
       </c>
       <c r="F10" s="3">
-        <f>D10*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>251509.63430999999</v>
       </c>
       <c r="G10">
@@ -2115,18 +2115,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M10">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N10">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N10">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T10" s="123">
-        <f>F10-G10 - O10</f>
-        <v>231878.29265506164</v>
+        <f t="shared" si="3"/>
+        <v>237964.15525506163</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
         <v>7.67404376</v>
       </c>
       <c r="F11" s="3">
-        <f>D11*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>253243.44408000002</v>
       </c>
       <c r="G11">
@@ -2164,18 +2164,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M11">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N11">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N11">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O11">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T11" s="123">
-        <f>F11-G11 - O11</f>
-        <v>233612.10242506166</v>
+        <f t="shared" si="3"/>
+        <v>239697.96502506165</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -2193,7 +2193,7 @@
         <v>7.7127074999999987</v>
       </c>
       <c r="F12" s="3">
-        <f>D12*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>254519.3475</v>
       </c>
       <c r="G12">
@@ -2213,18 +2213,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M12">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N12">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N12">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O12">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T12" s="123">
-        <f>F12-G12 - O12</f>
-        <v>234888.00584506165</v>
+        <f t="shared" si="3"/>
+        <v>240973.86844506164</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -2242,7 +2242,7 @@
         <v>7.7413696999999999</v>
       </c>
       <c r="F13" s="3">
-        <f>D13*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>255465.20010000002</v>
       </c>
       <c r="G13">
@@ -2262,18 +2262,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M13">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N13">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N13">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O13">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T13" s="123">
-        <f>F13-G13 - O13</f>
-        <v>235833.85844506166</v>
+        <f t="shared" si="3"/>
+        <v>241919.72104506165</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -2291,7 +2291,7 @@
         <v>7.7628164000000002</v>
       </c>
       <c r="F14" s="3">
-        <f>D14*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>256172.94120000003</v>
       </c>
       <c r="G14">
@@ -2311,18 +2311,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M14">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N14">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N14">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O14">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T14" s="123">
-        <f>F14-G14 - O14</f>
-        <v>236541.59954506168</v>
+        <f t="shared" si="3"/>
+        <v>242627.46214506167</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -2340,7 +2340,7 @@
         <v>7.7790524199999993</v>
       </c>
       <c r="F15" s="3">
-        <f>D15*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>256708.72985999996</v>
       </c>
       <c r="G15">
@@ -2360,18 +2360,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M15">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N15">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N15">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T15" s="123">
-        <f>F15-G15 - O15</f>
-        <v>237077.38820506161</v>
+        <f t="shared" si="3"/>
+        <v>243163.2508050616</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -2389,7 +2389,7 @@
         <v>7.7915207800000008</v>
       </c>
       <c r="F16" s="3">
-        <f>D16*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>257120.18574000002</v>
       </c>
       <c r="G16">
@@ -2409,18 +2409,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M16">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N16">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N16">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O16">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T16" s="123">
-        <f>F16-G16 - O16</f>
-        <v>237488.84408506166</v>
+        <f t="shared" si="3"/>
+        <v>243574.70668506165</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2438,7 +2438,7 @@
         <v>7.80126075</v>
       </c>
       <c r="F17" s="3">
-        <f>D17*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>257441.60474999997</v>
       </c>
       <c r="G17">
@@ -2458,18 +2458,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M17">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N17">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N17">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O17">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T17" s="123">
-        <f>F17-G17 - O17</f>
-        <v>237810.26309506161</v>
+        <f t="shared" si="3"/>
+        <v>243896.12569506161</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -2487,7 +2487,7 @@
         <v>7.8090211300000005</v>
       </c>
       <c r="F18" s="3">
-        <f>D18*$B$2*44/12</f>
+        <f t="shared" si="1"/>
         <v>257697.69729000001</v>
       </c>
       <c r="G18">
@@ -2507,18 +2507,18 @@
         <v>1107.5355199999999</v>
       </c>
       <c r="M18">
+        <v>6085.8626000000004</v>
+      </c>
+      <c r="N18">
         <v>3042.9313000000002</v>
       </c>
-      <c r="N18">
-        <v>6085.8626000000004</v>
-      </c>
       <c r="O18">
-        <f t="shared" si="1"/>
-        <v>2300.7289097800094</v>
+        <f t="shared" si="2"/>
+        <v>-3785.133690219991</v>
       </c>
       <c r="T18" s="123">
-        <f>F18-G18 - O18</f>
-        <v>238066.35563506166</v>
+        <f t="shared" si="3"/>
+        <v>244152.21823506165</v>
       </c>
     </row>
   </sheetData>
@@ -12297,12 +12297,12 @@
       <c r="R85"/>
     </row>
     <row r="86" spans="1:44" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="124" t="s">
+      <c r="B86" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
       <c r="F86" s="121"/>
       <c r="G86" s="121"/>
       <c r="H86" s="121"/>

--- a/Axam_Results.xlsx
+++ b/Axam_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/QA1_&amp;_3/Code/RothC_Implementation_Axam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BB8BC-7567-284C-9E81-856ECBAC2BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31AB7D9-B877-A144-96CE-0FD05C3F9C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{AA4B684E-F9E2-7F41-996C-BD2AB92E0EF7}"/>
   </bookViews>
@@ -1776,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8459C356-BFF7-1A4F-8872-7C39E98F0955}">
   <dimension ref="A2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1977,9 +1977,12 @@
         <f>(N7+L7)-(I7+J7+K7+M7)</f>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q7">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T7" s="123">
-        <f>F7- G7 - O7</f>
-        <v>239823.89038506159</v>
+        <f>(F7- G7 - O7)*(1-Q7)</f>
+        <v>197854.7095676758</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -2026,9 +2029,12 @@
         <f t="shared" ref="O8:O18" si="2">(N8+L8)-(I8+J8+K8+M8)</f>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q8">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T8" s="123">
-        <f t="shared" ref="T8:T18" si="3">F8-G8 - O8</f>
-        <v>232340.87704506164</v>
+        <f t="shared" ref="T8:T18" si="3">(F8- G8 - O8)*(1-Q8)</f>
+        <v>191681.22356217584</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -2075,9 +2081,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q9">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T9" s="123">
         <f t="shared" si="3"/>
-        <v>235594.50280506161</v>
+        <v>194365.46481417582</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -2124,9 +2133,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q10">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T10" s="123">
         <f t="shared" si="3"/>
-        <v>237964.15525506163</v>
+        <v>196320.42808542584</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -2173,9 +2185,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q11">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T11" s="123">
         <f t="shared" si="3"/>
-        <v>239697.96502506165</v>
+        <v>197750.82114567584</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -2222,9 +2237,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q12">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T12" s="123">
         <f t="shared" si="3"/>
-        <v>240973.86844506164</v>
+        <v>198803.44146717584</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -2271,9 +2289,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q13">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T13" s="123">
         <f t="shared" si="3"/>
-        <v>241919.72104506165</v>
+        <v>199583.76986217586</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -2320,9 +2341,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q14">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T14" s="123">
         <f t="shared" si="3"/>
-        <v>242627.46214506167</v>
+        <v>200167.65626967588</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -2369,9 +2393,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q15">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T15" s="123">
         <f t="shared" si="3"/>
-        <v>243163.2508050616</v>
+        <v>200609.6819141758</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -2418,9 +2445,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q16">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T16" s="123">
         <f t="shared" si="3"/>
-        <v>243574.70668506165</v>
+        <v>200949.13301517584</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2467,9 +2497,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q17">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T17" s="123">
         <f t="shared" si="3"/>
-        <v>243896.12569506161</v>
+        <v>201214.30369842582</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -2516,9 +2549,12 @@
         <f t="shared" si="2"/>
         <v>-3785.133690219991</v>
       </c>
+      <c r="Q18">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="T18" s="123">
         <f t="shared" si="3"/>
-        <v>244152.21823506165</v>
+        <v>201425.58004392585</v>
       </c>
     </row>
   </sheetData>
